--- a/Code/Results/Cases/Case_4_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002275983710201</v>
+        <v>1.035075658284013</v>
       </c>
       <c r="D2">
-        <v>1.024303137106173</v>
+        <v>1.042198635323328</v>
       </c>
       <c r="E2">
-        <v>1.010436219938747</v>
+        <v>1.038721552936539</v>
       </c>
       <c r="F2">
-        <v>1.028666433343546</v>
+        <v>1.051160215472998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050009295598538</v>
+        <v>1.038066846770822</v>
       </c>
       <c r="J2">
-        <v>1.024388832946763</v>
+        <v>1.04019141425881</v>
       </c>
       <c r="K2">
-        <v>1.03543396347206</v>
+        <v>1.044975999440203</v>
       </c>
       <c r="L2">
-        <v>1.021752051397314</v>
+        <v>1.041508779020077</v>
       </c>
       <c r="M2">
-        <v>1.039740338600721</v>
+        <v>1.053912488201351</v>
       </c>
       <c r="N2">
-        <v>1.025843582588592</v>
+        <v>1.04166860537868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.007374560936432</v>
+        <v>1.036142366995566</v>
       </c>
       <c r="D3">
-        <v>1.028126674054952</v>
+        <v>1.043007073317483</v>
       </c>
       <c r="E3">
-        <v>1.0150288225693</v>
+        <v>1.039736713705939</v>
       </c>
       <c r="F3">
-        <v>1.033053087388251</v>
+        <v>1.052110734089185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051558809496945</v>
+        <v>1.038300004548537</v>
       </c>
       <c r="J3">
-        <v>1.027666187079272</v>
+        <v>1.040900928344778</v>
       </c>
       <c r="K3">
-        <v>1.038411885845856</v>
+        <v>1.045595226354232</v>
       </c>
       <c r="L3">
-        <v>1.025472951387129</v>
+        <v>1.042333469880171</v>
       </c>
       <c r="M3">
-        <v>1.043279818551844</v>
+        <v>1.054675242628761</v>
       </c>
       <c r="N3">
-        <v>1.029125590939884</v>
+        <v>1.042379127056033</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010600376201825</v>
+        <v>1.036832733972142</v>
       </c>
       <c r="D4">
-        <v>1.030546876400466</v>
+        <v>1.043529991498238</v>
       </c>
       <c r="E4">
-        <v>1.017940073634795</v>
+        <v>1.040394077703443</v>
       </c>
       <c r="F4">
-        <v>1.035831801324913</v>
+        <v>1.052725888781589</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052525151544822</v>
+        <v>1.038449147375976</v>
       </c>
       <c r="J4">
-        <v>1.02973675594766</v>
+        <v>1.041359605787217</v>
       </c>
       <c r="K4">
-        <v>1.040290092992806</v>
+        <v>1.045995061589079</v>
       </c>
       <c r="L4">
-        <v>1.027826694104178</v>
+        <v>1.042866980782597</v>
       </c>
       <c r="M4">
-        <v>1.045516178303745</v>
+        <v>1.055168278512431</v>
       </c>
       <c r="N4">
-        <v>1.031199100253562</v>
+        <v>1.042838455873051</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011939652768864</v>
+        <v>1.037122996708279</v>
       </c>
       <c r="D5">
-        <v>1.031551875517688</v>
+        <v>1.043749778848836</v>
       </c>
       <c r="E5">
-        <v>1.019150042334151</v>
+        <v>1.040670549762062</v>
       </c>
       <c r="F5">
-        <v>1.036986184751513</v>
+        <v>1.052984524439155</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052922932475145</v>
+        <v>1.03851143348078</v>
       </c>
       <c r="J5">
-        <v>1.030595647507272</v>
+        <v>1.041552331582085</v>
       </c>
       <c r="K5">
-        <v>1.041068406611442</v>
+        <v>1.046162949309768</v>
       </c>
       <c r="L5">
-        <v>1.028803761954896</v>
+        <v>1.043091239886504</v>
       </c>
       <c r="M5">
-        <v>1.046443869419667</v>
+        <v>1.055375426418294</v>
       </c>
       <c r="N5">
-        <v>1.032059211537705</v>
+        <v>1.043031455360653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012163554173304</v>
+        <v>1.037171735005649</v>
       </c>
       <c r="D6">
-        <v>1.031719901487253</v>
+        <v>1.043786679308836</v>
       </c>
       <c r="E6">
-        <v>1.01935240063812</v>
+        <v>1.040716977442259</v>
       </c>
       <c r="F6">
-        <v>1.037179216735102</v>
+        <v>1.053027951929076</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052989231173557</v>
+        <v>1.038521867330893</v>
       </c>
       <c r="J6">
-        <v>1.030739192104773</v>
+        <v>1.041584685088901</v>
       </c>
       <c r="K6">
-        <v>1.041198437700554</v>
+        <v>1.046191126478026</v>
       </c>
       <c r="L6">
-        <v>1.028967099173477</v>
+        <v>1.043128892273552</v>
       </c>
       <c r="M6">
-        <v>1.046598913507121</v>
+        <v>1.055410200153372</v>
       </c>
       <c r="N6">
-        <v>1.032202959985</v>
+        <v>1.04306385481316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010618337024976</v>
+        <v>1.036836612349342</v>
       </c>
       <c r="D7">
-        <v>1.030560353610872</v>
+        <v>1.043532928494929</v>
       </c>
       <c r="E7">
-        <v>1.017956295283475</v>
+        <v>1.040397771480379</v>
       </c>
       <c r="F7">
-        <v>1.035847279767939</v>
+        <v>1.052729344587974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052530499708467</v>
+        <v>1.038449981271356</v>
       </c>
       <c r="J7">
-        <v>1.029748277446079</v>
+        <v>1.041362181400699</v>
       </c>
       <c r="K7">
-        <v>1.040300536715426</v>
+        <v>1.045997305711333</v>
       </c>
       <c r="L7">
-        <v>1.027839798038166</v>
+        <v>1.042869977457622</v>
       </c>
       <c r="M7">
-        <v>1.04552862261642</v>
+        <v>1.055171046922319</v>
       </c>
       <c r="N7">
-        <v>1.031210638113831</v>
+        <v>1.042841035144199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004014680135721</v>
+        <v>1.035436129579981</v>
       </c>
       <c r="D8">
-        <v>1.025606751950768</v>
+        <v>1.042471890735106</v>
       </c>
       <c r="E8">
-        <v>1.012001176434657</v>
+        <v>1.039064530188107</v>
       </c>
       <c r="F8">
-        <v>1.030161613291037</v>
+        <v>1.051481425435626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050540613356221</v>
+        <v>1.03814600066041</v>
       </c>
       <c r="J8">
-        <v>1.025507062578349</v>
+        <v>1.040431285807705</v>
       </c>
       <c r="K8">
-        <v>1.036450684747692</v>
+        <v>1.045185444953681</v>
       </c>
       <c r="L8">
-        <v>1.023021001485646</v>
+        <v>1.041787511643725</v>
       </c>
       <c r="M8">
-        <v>1.040947956145412</v>
+        <v>1.054170371397386</v>
       </c>
       <c r="N8">
-        <v>1.026963400234514</v>
+        <v>1.041908817572689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.991783475829247</v>
+        <v>1.032969329180671</v>
       </c>
       <c r="D9">
-        <v>1.016443871613155</v>
+        <v>1.040600741845917</v>
       </c>
       <c r="E9">
-        <v>1.001017761857021</v>
+        <v>1.036718935441884</v>
       </c>
       <c r="F9">
-        <v>1.019660511075231</v>
+        <v>1.049283269394239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046745601837042</v>
+        <v>1.037597146020871</v>
       </c>
       <c r="J9">
-        <v>1.017629754843667</v>
+        <v>1.038787682291546</v>
       </c>
       <c r="K9">
-        <v>1.029275675504432</v>
+        <v>1.043748384094026</v>
       </c>
       <c r="L9">
-        <v>1.014094348138861</v>
+        <v>1.039879169741969</v>
       </c>
       <c r="M9">
-        <v>1.032442464868567</v>
+        <v>1.052403115723821</v>
       </c>
       <c r="N9">
-        <v>1.019074905819309</v>
+        <v>1.040262879951013</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9831793613403518</v>
+        <v>1.031325476508602</v>
       </c>
       <c r="D10">
-        <v>1.010011474348117</v>
+        <v>1.039352363556767</v>
       </c>
       <c r="E10">
-        <v>0.9933262595527003</v>
+        <v>1.035157743790574</v>
       </c>
       <c r="F10">
-        <v>1.012298551587273</v>
+        <v>1.047818430327238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044005635229645</v>
+        <v>1.037222386920933</v>
       </c>
       <c r="J10">
-        <v>1.01207661534588</v>
+        <v>1.037689779314523</v>
       </c>
       <c r="K10">
-        <v>1.024202291029594</v>
+        <v>1.042786027135653</v>
       </c>
       <c r="L10">
-        <v>1.007817065059833</v>
+        <v>1.038606354348663</v>
       </c>
       <c r="M10">
-        <v>1.026449246458719</v>
+        <v>1.051222327747684</v>
       </c>
       <c r="N10">
-        <v>1.013513880226481</v>
+        <v>1.039163417825831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9793346136271859</v>
+        <v>1.03061382820762</v>
       </c>
       <c r="D11">
-        <v>1.00714152790174</v>
+        <v>1.03881158521866</v>
       </c>
       <c r="E11">
-        <v>0.9898983766227515</v>
+        <v>1.034482335737337</v>
       </c>
       <c r="F11">
-        <v>1.009015999828829</v>
+        <v>1.047184287437364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042765481858224</v>
+        <v>1.037058015417144</v>
       </c>
       <c r="J11">
-        <v>1.009593104069069</v>
+        <v>1.037213863686878</v>
       </c>
       <c r="K11">
-        <v>1.021930010549709</v>
+        <v>1.042368296958741</v>
       </c>
       <c r="L11">
-        <v>1.005013342659927</v>
+        <v>1.038055074660174</v>
       </c>
       <c r="M11">
-        <v>1.023769867268749</v>
+        <v>1.050710418226707</v>
       </c>
       <c r="N11">
-        <v>1.011026842078795</v>
+        <v>1.038686826343407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9778874557179428</v>
+        <v>1.030349512578942</v>
       </c>
       <c r="D12">
-        <v>1.006062050954439</v>
+        <v>1.038610683192909</v>
       </c>
       <c r="E12">
-        <v>0.9886095607371478</v>
+        <v>1.034231549145788</v>
       </c>
       <c r="F12">
-        <v>1.007781632281533</v>
+        <v>1.046948760326361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04229639610067</v>
+        <v>1.036996645514211</v>
       </c>
       <c r="J12">
-        <v>1.008658063736829</v>
+        <v>1.037037009964147</v>
       </c>
       <c r="K12">
-        <v>1.021074025944015</v>
+        <v>1.042212979938539</v>
       </c>
       <c r="L12">
-        <v>1.003958286245182</v>
+        <v>1.037850283598582</v>
       </c>
       <c r="M12">
-        <v>1.022761251737753</v>
+        <v>1.050520179364937</v>
       </c>
       <c r="N12">
-        <v>1.010090473882032</v>
+        <v>1.038509721468104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9781987574969999</v>
+        <v>1.030406208178909</v>
       </c>
       <c r="D13">
-        <v>1.006294223460123</v>
+        <v>1.038653778838591</v>
       </c>
       <c r="E13">
-        <v>0.9888867351373694</v>
+        <v>1.034285339644401</v>
       </c>
       <c r="F13">
-        <v>1.008047105055109</v>
+        <v>1.046999280697873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042397404594426</v>
+        <v>1.037009823817588</v>
       </c>
       <c r="J13">
-        <v>1.008859212835838</v>
+        <v>1.037074949191823</v>
       </c>
       <c r="K13">
-        <v>1.021258189190683</v>
+        <v>1.042246302904988</v>
       </c>
       <c r="L13">
-        <v>1.004185229151835</v>
+        <v>1.037894212935573</v>
       </c>
       <c r="M13">
-        <v>1.022978220509398</v>
+        <v>1.050560990443596</v>
       </c>
       <c r="N13">
-        <v>1.010291908635834</v>
+        <v>1.038547714573835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9792153866686047</v>
+        <v>1.030591979344067</v>
       </c>
       <c r="D14">
-        <v>1.007052576820325</v>
+        <v>1.038794979262114</v>
       </c>
       <c r="E14">
-        <v>0.9897921654011098</v>
+        <v>1.034461603801937</v>
       </c>
       <c r="F14">
-        <v>1.008914279393701</v>
+        <v>1.047164818245752</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042726881423406</v>
+        <v>1.037052948986483</v>
       </c>
       <c r="J14">
-        <v>1.009516073622392</v>
+        <v>1.03719924648267</v>
       </c>
       <c r="K14">
-        <v>1.021859502303715</v>
+        <v>1.042355461533662</v>
       </c>
       <c r="L14">
-        <v>1.004926414045092</v>
+        <v>1.038038146999685</v>
       </c>
       <c r="M14">
-        <v>1.023686771962082</v>
+        <v>1.050694694915585</v>
       </c>
       <c r="N14">
-        <v>1.010949702240048</v>
+        <v>1.038672188381092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798392053931644</v>
+        <v>1.030706442024361</v>
       </c>
       <c r="D15">
-        <v>1.007518018165589</v>
+        <v>1.038881973162913</v>
       </c>
       <c r="E15">
-        <v>0.9903479421358902</v>
+        <v>1.034570217901536</v>
       </c>
       <c r="F15">
-        <v>1.009446549319275</v>
+        <v>1.047266814293543</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04292875348879</v>
+        <v>1.037079478092024</v>
       </c>
       <c r="J15">
-        <v>1.009919102166371</v>
+        <v>1.037275819883936</v>
       </c>
       <c r="K15">
-        <v>1.022228387169904</v>
+        <v>1.042422697445041</v>
       </c>
       <c r="L15">
-        <v>1.005381252577693</v>
+        <v>1.038126826716357</v>
       </c>
       <c r="M15">
-        <v>1.024121539310666</v>
+        <v>1.050777062357591</v>
       </c>
       <c r="N15">
-        <v>1.011353303130788</v>
+        <v>1.03874887052537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9834319188518108</v>
+        <v>1.031372709403557</v>
       </c>
       <c r="D16">
-        <v>1.010200098248837</v>
+        <v>1.03938824859539</v>
       </c>
       <c r="E16">
-        <v>0.9935516282551451</v>
+        <v>1.03520258101596</v>
       </c>
       <c r="F16">
-        <v>1.012514336497484</v>
+        <v>1.047860519334206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044086777579508</v>
+        <v>1.037233251527569</v>
       </c>
       <c r="J16">
-        <v>1.012239716457393</v>
+        <v>1.037721353397281</v>
       </c>
       <c r="K16">
-        <v>1.024351452921496</v>
+        <v>1.042813728978499</v>
       </c>
       <c r="L16">
-        <v>1.008001271021708</v>
+        <v>1.038642937980465</v>
       </c>
       <c r="M16">
-        <v>1.02662523282494</v>
+        <v>1.051256288453125</v>
       </c>
       <c r="N16">
-        <v>1.01367721296028</v>
+        <v>1.039195036747409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9856528597386229</v>
+        <v>1.031790681397894</v>
       </c>
       <c r="D17">
-        <v>1.011859328791133</v>
+        <v>1.039705762654914</v>
       </c>
       <c r="E17">
-        <v>0.995534514285967</v>
+        <v>1.035599405964631</v>
       </c>
       <c r="F17">
-        <v>1.014412729891368</v>
+        <v>1.048232973179104</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044798541636584</v>
+        <v>1.037329147928975</v>
       </c>
       <c r="J17">
-        <v>1.013673765225221</v>
+        <v>1.038000686627323</v>
       </c>
       <c r="K17">
-        <v>1.025662567839463</v>
+        <v>1.043058738985453</v>
       </c>
       <c r="L17">
-        <v>1.009621295297763</v>
+        <v>1.038966642954741</v>
       </c>
       <c r="M17">
-        <v>1.028172684405985</v>
+        <v>1.05155672843932</v>
       </c>
       <c r="N17">
-        <v>1.015113298241847</v>
+        <v>1.039474766662676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9869368873731559</v>
+        <v>1.032034491963892</v>
       </c>
       <c r="D18">
-        <v>1.012819012100101</v>
+        <v>1.03989094175017</v>
       </c>
       <c r="E18">
-        <v>0.9966817647121319</v>
+        <v>1.035830924954154</v>
       </c>
       <c r="F18">
-        <v>1.015510946579323</v>
+        <v>1.048450232885652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04520854360114</v>
+        <v>1.03738488020182</v>
       </c>
       <c r="J18">
-        <v>1.014502652060862</v>
+        <v>1.038163567142466</v>
       </c>
       <c r="K18">
-        <v>1.026420081473186</v>
+        <v>1.04320155042724</v>
       </c>
       <c r="L18">
-        <v>1.010558022097874</v>
+        <v>1.039155440858581</v>
       </c>
       <c r="M18">
-        <v>1.029067206388997</v>
+        <v>1.051731910103955</v>
       </c>
       <c r="N18">
-        <v>1.015943362191869</v>
+        <v>1.039637878486835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9873728058145804</v>
+        <v>1.032117627550694</v>
       </c>
       <c r="D19">
-        <v>1.013144883614032</v>
+        <v>1.03995407937612</v>
       </c>
       <c r="E19">
-        <v>0.9970713908808005</v>
+        <v>1.035909876730612</v>
       </c>
       <c r="F19">
-        <v>1.015883893799476</v>
+        <v>1.048524315137871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045347479416187</v>
+        <v>1.03740384911576</v>
       </c>
       <c r="J19">
-        <v>1.01478401718367</v>
+        <v>1.038219096733056</v>
       </c>
       <c r="K19">
-        <v>1.026677164459779</v>
+        <v>1.043250228679391</v>
       </c>
       <c r="L19">
-        <v>1.010876052129268</v>
+        <v>1.039219813731874</v>
       </c>
       <c r="M19">
-        <v>1.029370865449851</v>
+        <v>1.051791632354174</v>
       </c>
       <c r="N19">
-        <v>1.016225126885425</v>
+        <v>1.039693486935812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9854157619771734</v>
+        <v>1.031745835454002</v>
       </c>
       <c r="D20">
-        <v>1.011682153807864</v>
+        <v>1.039671698619523</v>
       </c>
       <c r="E20">
-        <v>0.9953227411464413</v>
+        <v>1.035556824432633</v>
       </c>
       <c r="F20">
-        <v>1.014209995734065</v>
+        <v>1.048193010988073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044722712149598</v>
+        <v>1.037318880093845</v>
       </c>
       <c r="J20">
-        <v>1.013520693128688</v>
+        <v>1.037970721968757</v>
       </c>
       <c r="K20">
-        <v>1.025522650549139</v>
+        <v>1.043032461942372</v>
       </c>
       <c r="L20">
-        <v>1.009448336145854</v>
+        <v>1.038931913893744</v>
       </c>
       <c r="M20">
-        <v>1.028007498259491</v>
+        <v>1.051524500264818</v>
       </c>
       <c r="N20">
-        <v>1.014960008765379</v>
+        <v>1.039444759450859</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.978916550256218</v>
+        <v>1.030537273755629</v>
       </c>
       <c r="D21">
-        <v>1.00682963812067</v>
+        <v>1.038753400159971</v>
       </c>
       <c r="E21">
-        <v>0.9895259756412625</v>
+        <v>1.03440969591426</v>
       </c>
       <c r="F21">
-        <v>1.008659341597057</v>
+        <v>1.04711607095865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042630094709</v>
+        <v>1.037040258392919</v>
       </c>
       <c r="J21">
-        <v>1.009322996857725</v>
+        <v>1.03716264616615</v>
       </c>
       <c r="K21">
-        <v>1.021682765918341</v>
+        <v>1.042323321271331</v>
       </c>
       <c r="L21">
-        <v>1.004708536259706</v>
+        <v>1.037995762590565</v>
       </c>
       <c r="M21">
-        <v>1.023478496443801</v>
+        <v>1.050655324841992</v>
       </c>
       <c r="N21">
-        <v>1.010756351284229</v>
+        <v>1.038635536087924</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9747193927561971</v>
+        <v>1.029777531497692</v>
       </c>
       <c r="D22">
-        <v>1.003700440781881</v>
+        <v>1.038175839535877</v>
       </c>
       <c r="E22">
-        <v>0.985790858942827</v>
+        <v>1.033688971657596</v>
       </c>
       <c r="F22">
-        <v>1.005081699771923</v>
+        <v>1.04643908232678</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041265362970935</v>
+        <v>1.036863255452279</v>
       </c>
       <c r="J22">
-        <v>1.00661072338121</v>
+        <v>1.036654128682842</v>
       </c>
       <c r="K22">
-        <v>1.01919894592803</v>
+        <v>1.04187656881567</v>
       </c>
       <c r="L22">
-        <v>1.001649156611691</v>
+        <v>1.037407044287026</v>
       </c>
       <c r="M22">
-        <v>1.020553154931754</v>
+        <v>1.050108302595477</v>
       </c>
       <c r="N22">
-        <v>1.008040226068276</v>
+        <v>1.038126296451462</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9769553026771201</v>
+        <v>1.030180273205584</v>
       </c>
       <c r="D23">
-        <v>1.005366961619089</v>
+        <v>1.038482033180093</v>
       </c>
       <c r="E23">
-        <v>0.9877798138673787</v>
+        <v>1.034070991789539</v>
       </c>
       <c r="F23">
-        <v>1.006986890001785</v>
+        <v>1.046797954689316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041993609441423</v>
+        <v>1.03695726072352</v>
       </c>
       <c r="J23">
-        <v>1.008055717211165</v>
+        <v>1.036923745864578</v>
       </c>
       <c r="K23">
-        <v>1.020522476959337</v>
+        <v>1.04211348477722</v>
       </c>
       <c r="L23">
-        <v>1.003278778724783</v>
+        <v>1.037719146598713</v>
       </c>
       <c r="M23">
-        <v>1.022111559674377</v>
+        <v>1.050398340237324</v>
       </c>
       <c r="N23">
-        <v>1.009487271955212</v>
+        <v>1.038396296520522</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9855229314241469</v>
+        <v>1.031766099360422</v>
       </c>
       <c r="D24">
-        <v>1.01176223658946</v>
+        <v>1.039687090757186</v>
       </c>
       <c r="E24">
-        <v>0.9954184610888324</v>
+        <v>1.035576065015612</v>
       </c>
       <c r="F24">
-        <v>1.014301630583962</v>
+        <v>1.04821106813971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04475699214348</v>
+        <v>1.037323520312145</v>
       </c>
       <c r="J24">
-        <v>1.013589883161727</v>
+        <v>1.03798426186202</v>
       </c>
       <c r="K24">
-        <v>1.02558589547059</v>
+        <v>1.04304433571211</v>
       </c>
       <c r="L24">
-        <v>1.009526514244329</v>
+        <v>1.038947606503832</v>
       </c>
       <c r="M24">
-        <v>1.028082163687143</v>
+        <v>1.051539062974626</v>
       </c>
       <c r="N24">
-        <v>1.015029297056201</v>
+        <v>1.039458318572323</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950209422217907</v>
+        <v>1.033606935384708</v>
       </c>
       <c r="D25">
-        <v>1.018867281756717</v>
+        <v>1.041084648215526</v>
       </c>
       <c r="E25">
-        <v>1.003919209404802</v>
+        <v>1.037324881922585</v>
       </c>
       <c r="F25">
-        <v>1.022436090850512</v>
+        <v>1.049851442553436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047762469329668</v>
+        <v>1.037740600503547</v>
       </c>
       <c r="J25">
-        <v>1.019717041290571</v>
+        <v>1.039212976322549</v>
       </c>
       <c r="K25">
-        <v>1.031179601228787</v>
+        <v>1.044120661446663</v>
       </c>
       <c r="L25">
-        <v>1.016456987837259</v>
+        <v>1.04037262663456</v>
       </c>
       <c r="M25">
-        <v>1.034695820348493</v>
+        <v>1.052860457201773</v>
       </c>
       <c r="N25">
-        <v>1.021165156452383</v>
+        <v>1.040688777948321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035075658284013</v>
+        <v>1.002275983710201</v>
       </c>
       <c r="D2">
-        <v>1.042198635323328</v>
+        <v>1.024303137106174</v>
       </c>
       <c r="E2">
-        <v>1.038721552936539</v>
+        <v>1.010436219938747</v>
       </c>
       <c r="F2">
-        <v>1.051160215472998</v>
+        <v>1.028666433343547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038066846770822</v>
+        <v>1.050009295598538</v>
       </c>
       <c r="J2">
-        <v>1.04019141425881</v>
+        <v>1.024388832946763</v>
       </c>
       <c r="K2">
-        <v>1.044975999440203</v>
+        <v>1.035433963472061</v>
       </c>
       <c r="L2">
-        <v>1.041508779020077</v>
+        <v>1.021752051397315</v>
       </c>
       <c r="M2">
-        <v>1.053912488201351</v>
+        <v>1.039740338600722</v>
       </c>
       <c r="N2">
-        <v>1.04166860537868</v>
+        <v>1.025843582588592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036142366995566</v>
+        <v>1.007374560936433</v>
       </c>
       <c r="D3">
-        <v>1.043007073317483</v>
+        <v>1.028126674054953</v>
       </c>
       <c r="E3">
-        <v>1.039736713705939</v>
+        <v>1.015028822569301</v>
       </c>
       <c r="F3">
-        <v>1.052110734089185</v>
+        <v>1.033053087388251</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038300004548537</v>
+        <v>1.051558809496945</v>
       </c>
       <c r="J3">
-        <v>1.040900928344778</v>
+        <v>1.027666187079273</v>
       </c>
       <c r="K3">
-        <v>1.045595226354232</v>
+        <v>1.038411885845857</v>
       </c>
       <c r="L3">
-        <v>1.042333469880171</v>
+        <v>1.02547295138713</v>
       </c>
       <c r="M3">
-        <v>1.054675242628761</v>
+        <v>1.043279818551845</v>
       </c>
       <c r="N3">
-        <v>1.042379127056033</v>
+        <v>1.029125590939885</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036832733972142</v>
+        <v>1.010600376201825</v>
       </c>
       <c r="D4">
-        <v>1.043529991498238</v>
+        <v>1.030546876400466</v>
       </c>
       <c r="E4">
-        <v>1.040394077703443</v>
+        <v>1.017940073634795</v>
       </c>
       <c r="F4">
-        <v>1.052725888781589</v>
+        <v>1.035831801324913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038449147375976</v>
+        <v>1.052525151544822</v>
       </c>
       <c r="J4">
-        <v>1.041359605787217</v>
+        <v>1.02973675594766</v>
       </c>
       <c r="K4">
-        <v>1.045995061589079</v>
+        <v>1.040290092992806</v>
       </c>
       <c r="L4">
-        <v>1.042866980782597</v>
+        <v>1.027826694104178</v>
       </c>
       <c r="M4">
-        <v>1.055168278512431</v>
+        <v>1.045516178303745</v>
       </c>
       <c r="N4">
-        <v>1.042838455873051</v>
+        <v>1.031199100253562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037122996708279</v>
+        <v>1.011939652768864</v>
       </c>
       <c r="D5">
-        <v>1.043749778848836</v>
+        <v>1.031551875517687</v>
       </c>
       <c r="E5">
-        <v>1.040670549762062</v>
+        <v>1.019150042334151</v>
       </c>
       <c r="F5">
-        <v>1.052984524439155</v>
+        <v>1.036986184751512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03851143348078</v>
+        <v>1.052922932475145</v>
       </c>
       <c r="J5">
-        <v>1.041552331582085</v>
+        <v>1.030595647507271</v>
       </c>
       <c r="K5">
-        <v>1.046162949309768</v>
+        <v>1.041068406611442</v>
       </c>
       <c r="L5">
-        <v>1.043091239886504</v>
+        <v>1.028803761954895</v>
       </c>
       <c r="M5">
-        <v>1.055375426418294</v>
+        <v>1.046443869419667</v>
       </c>
       <c r="N5">
-        <v>1.043031455360653</v>
+        <v>1.032059211537705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037171735005649</v>
+        <v>1.012163554173305</v>
       </c>
       <c r="D6">
-        <v>1.043786679308836</v>
+        <v>1.031719901487254</v>
       </c>
       <c r="E6">
-        <v>1.040716977442259</v>
+        <v>1.01935240063812</v>
       </c>
       <c r="F6">
-        <v>1.053027951929076</v>
+        <v>1.037179216735102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038521867330893</v>
+        <v>1.052989231173557</v>
       </c>
       <c r="J6">
-        <v>1.041584685088901</v>
+        <v>1.030739192104774</v>
       </c>
       <c r="K6">
-        <v>1.046191126478026</v>
+        <v>1.041198437700554</v>
       </c>
       <c r="L6">
-        <v>1.043128892273552</v>
+        <v>1.028967099173477</v>
       </c>
       <c r="M6">
-        <v>1.055410200153372</v>
+        <v>1.046598913507121</v>
       </c>
       <c r="N6">
-        <v>1.04306385481316</v>
+        <v>1.032202959985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036836612349342</v>
+        <v>1.010618337024975</v>
       </c>
       <c r="D7">
-        <v>1.043532928494929</v>
+        <v>1.030560353610871</v>
       </c>
       <c r="E7">
-        <v>1.040397771480379</v>
+        <v>1.017956295283473</v>
       </c>
       <c r="F7">
-        <v>1.052729344587974</v>
+        <v>1.035847279767938</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038449981271356</v>
+        <v>1.052530499708466</v>
       </c>
       <c r="J7">
-        <v>1.041362181400699</v>
+        <v>1.029748277446078</v>
       </c>
       <c r="K7">
-        <v>1.045997305711333</v>
+        <v>1.040300536715425</v>
       </c>
       <c r="L7">
-        <v>1.042869977457622</v>
+        <v>1.027839798038164</v>
       </c>
       <c r="M7">
-        <v>1.055171046922319</v>
+        <v>1.045528622616419</v>
       </c>
       <c r="N7">
-        <v>1.042841035144199</v>
+        <v>1.03121063811383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035436129579981</v>
+        <v>1.004014680135721</v>
       </c>
       <c r="D8">
-        <v>1.042471890735106</v>
+        <v>1.025606751950767</v>
       </c>
       <c r="E8">
-        <v>1.039064530188107</v>
+        <v>1.012001176434656</v>
       </c>
       <c r="F8">
-        <v>1.051481425435626</v>
+        <v>1.030161613291036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03814600066041</v>
+        <v>1.050540613356221</v>
       </c>
       <c r="J8">
-        <v>1.040431285807705</v>
+        <v>1.025507062578348</v>
       </c>
       <c r="K8">
-        <v>1.045185444953681</v>
+        <v>1.036450684747692</v>
       </c>
       <c r="L8">
-        <v>1.041787511643725</v>
+        <v>1.023021001485645</v>
       </c>
       <c r="M8">
-        <v>1.054170371397386</v>
+        <v>1.040947956145412</v>
       </c>
       <c r="N8">
-        <v>1.041908817572689</v>
+        <v>1.026963400234514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032969329180671</v>
+        <v>0.9917834758292456</v>
       </c>
       <c r="D9">
-        <v>1.040600741845917</v>
+        <v>1.016443871613154</v>
       </c>
       <c r="E9">
-        <v>1.036718935441884</v>
+        <v>1.00101776185702</v>
       </c>
       <c r="F9">
-        <v>1.049283269394239</v>
+        <v>1.019660511075229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037597146020871</v>
+        <v>1.046745601837041</v>
       </c>
       <c r="J9">
-        <v>1.038787682291546</v>
+        <v>1.017629754843666</v>
       </c>
       <c r="K9">
-        <v>1.043748384094026</v>
+        <v>1.029275675504431</v>
       </c>
       <c r="L9">
-        <v>1.039879169741969</v>
+        <v>1.014094348138859</v>
       </c>
       <c r="M9">
-        <v>1.052403115723821</v>
+        <v>1.032442464868566</v>
       </c>
       <c r="N9">
-        <v>1.040262879951013</v>
+        <v>1.019074905819308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031325476508602</v>
+        <v>0.9831793613403521</v>
       </c>
       <c r="D10">
-        <v>1.039352363556767</v>
+        <v>1.010011474348118</v>
       </c>
       <c r="E10">
-        <v>1.035157743790574</v>
+        <v>0.9933262595527005</v>
       </c>
       <c r="F10">
-        <v>1.047818430327238</v>
+        <v>1.012298551587273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037222386920933</v>
+        <v>1.044005635229645</v>
       </c>
       <c r="J10">
-        <v>1.037689779314523</v>
+        <v>1.01207661534588</v>
       </c>
       <c r="K10">
-        <v>1.042786027135653</v>
+        <v>1.024202291029594</v>
       </c>
       <c r="L10">
-        <v>1.038606354348663</v>
+        <v>1.007817065059833</v>
       </c>
       <c r="M10">
-        <v>1.051222327747684</v>
+        <v>1.026449246458719</v>
       </c>
       <c r="N10">
-        <v>1.039163417825831</v>
+        <v>1.013513880226482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03061382820762</v>
+        <v>0.9793346136271867</v>
       </c>
       <c r="D11">
-        <v>1.03881158521866</v>
+        <v>1.007141527901741</v>
       </c>
       <c r="E11">
-        <v>1.034482335737337</v>
+        <v>0.9898983766227526</v>
       </c>
       <c r="F11">
-        <v>1.047184287437364</v>
+        <v>1.00901599982883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037058015417144</v>
+        <v>1.042765481858225</v>
       </c>
       <c r="J11">
-        <v>1.037213863686878</v>
+        <v>1.00959310406907</v>
       </c>
       <c r="K11">
-        <v>1.042368296958741</v>
+        <v>1.02193001054971</v>
       </c>
       <c r="L11">
-        <v>1.038055074660174</v>
+        <v>1.005013342659929</v>
       </c>
       <c r="M11">
-        <v>1.050710418226707</v>
+        <v>1.023769867268751</v>
       </c>
       <c r="N11">
-        <v>1.038686826343407</v>
+        <v>1.011026842078795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030349512578942</v>
+        <v>0.9778874557179423</v>
       </c>
       <c r="D12">
-        <v>1.038610683192909</v>
+        <v>1.006062050954439</v>
       </c>
       <c r="E12">
-        <v>1.034231549145788</v>
+        <v>0.9886095607371479</v>
       </c>
       <c r="F12">
-        <v>1.046948760326361</v>
+        <v>1.007781632281533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036996645514211</v>
+        <v>1.04229639610067</v>
       </c>
       <c r="J12">
-        <v>1.037037009964147</v>
+        <v>1.008658063736829</v>
       </c>
       <c r="K12">
-        <v>1.042212979938539</v>
+        <v>1.021074025944015</v>
       </c>
       <c r="L12">
-        <v>1.037850283598582</v>
+        <v>1.003958286245181</v>
       </c>
       <c r="M12">
-        <v>1.050520179364937</v>
+        <v>1.022761251737753</v>
       </c>
       <c r="N12">
-        <v>1.038509721468104</v>
+        <v>1.010090473882032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030406208178909</v>
+        <v>0.9781987574969991</v>
       </c>
       <c r="D13">
-        <v>1.038653778838591</v>
+        <v>1.006294223460122</v>
       </c>
       <c r="E13">
-        <v>1.034285339644401</v>
+        <v>0.9888867351373686</v>
       </c>
       <c r="F13">
-        <v>1.046999280697873</v>
+        <v>1.008047105055109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037009823817588</v>
+        <v>1.042397404594426</v>
       </c>
       <c r="J13">
-        <v>1.037074949191823</v>
+        <v>1.008859212835837</v>
       </c>
       <c r="K13">
-        <v>1.042246302904988</v>
+        <v>1.021258189190682</v>
       </c>
       <c r="L13">
-        <v>1.037894212935573</v>
+        <v>1.004185229151834</v>
       </c>
       <c r="M13">
-        <v>1.050560990443596</v>
+        <v>1.022978220509397</v>
       </c>
       <c r="N13">
-        <v>1.038547714573835</v>
+        <v>1.010291908635833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030591979344067</v>
+        <v>0.9792153866686057</v>
       </c>
       <c r="D14">
-        <v>1.038794979262114</v>
+        <v>1.007052576820326</v>
       </c>
       <c r="E14">
-        <v>1.034461603801937</v>
+        <v>0.9897921654011111</v>
       </c>
       <c r="F14">
-        <v>1.047164818245752</v>
+        <v>1.008914279393702</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037052948986483</v>
+        <v>1.042726881423406</v>
       </c>
       <c r="J14">
-        <v>1.03719924648267</v>
+        <v>1.009516073622392</v>
       </c>
       <c r="K14">
-        <v>1.042355461533662</v>
+        <v>1.021859502303716</v>
       </c>
       <c r="L14">
-        <v>1.038038146999685</v>
+        <v>1.004926414045093</v>
       </c>
       <c r="M14">
-        <v>1.050694694915585</v>
+        <v>1.023686771962083</v>
       </c>
       <c r="N14">
-        <v>1.038672188381092</v>
+        <v>1.010949702240049</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030706442024361</v>
+        <v>0.9798392053931644</v>
       </c>
       <c r="D15">
-        <v>1.038881973162913</v>
+        <v>1.007518018165589</v>
       </c>
       <c r="E15">
-        <v>1.034570217901536</v>
+        <v>0.9903479421358901</v>
       </c>
       <c r="F15">
-        <v>1.047266814293543</v>
+        <v>1.009446549319275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037079478092024</v>
+        <v>1.04292875348879</v>
       </c>
       <c r="J15">
-        <v>1.037275819883936</v>
+        <v>1.009919102166371</v>
       </c>
       <c r="K15">
-        <v>1.042422697445041</v>
+        <v>1.022228387169905</v>
       </c>
       <c r="L15">
-        <v>1.038126826716357</v>
+        <v>1.005381252577693</v>
       </c>
       <c r="M15">
-        <v>1.050777062357591</v>
+        <v>1.024121539310666</v>
       </c>
       <c r="N15">
-        <v>1.03874887052537</v>
+        <v>1.011353303130788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031372709403557</v>
+        <v>0.9834319188518118</v>
       </c>
       <c r="D16">
-        <v>1.03938824859539</v>
+        <v>1.010200098248838</v>
       </c>
       <c r="E16">
-        <v>1.03520258101596</v>
+        <v>0.9935516282551462</v>
       </c>
       <c r="F16">
-        <v>1.047860519334206</v>
+        <v>1.012514336497485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037233251527569</v>
+        <v>1.044086777579509</v>
       </c>
       <c r="J16">
-        <v>1.037721353397281</v>
+        <v>1.012239716457394</v>
       </c>
       <c r="K16">
-        <v>1.042813728978499</v>
+        <v>1.024351452921497</v>
       </c>
       <c r="L16">
-        <v>1.038642937980465</v>
+        <v>1.008001271021709</v>
       </c>
       <c r="M16">
-        <v>1.051256288453125</v>
+        <v>1.026625232824941</v>
       </c>
       <c r="N16">
-        <v>1.039195036747409</v>
+        <v>1.013677212960281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031790681397894</v>
+        <v>0.9856528597386234</v>
       </c>
       <c r="D17">
-        <v>1.039705762654914</v>
+        <v>1.011859328791133</v>
       </c>
       <c r="E17">
-        <v>1.035599405964631</v>
+        <v>0.9955345142859675</v>
       </c>
       <c r="F17">
-        <v>1.048232973179104</v>
+        <v>1.014412729891369</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037329147928975</v>
+        <v>1.044798541636585</v>
       </c>
       <c r="J17">
-        <v>1.038000686627323</v>
+        <v>1.013673765225222</v>
       </c>
       <c r="K17">
-        <v>1.043058738985453</v>
+        <v>1.025662567839463</v>
       </c>
       <c r="L17">
-        <v>1.038966642954741</v>
+        <v>1.009621295297763</v>
       </c>
       <c r="M17">
-        <v>1.05155672843932</v>
+        <v>1.028172684405985</v>
       </c>
       <c r="N17">
-        <v>1.039474766662676</v>
+        <v>1.015113298241848</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032034491963892</v>
+        <v>0.9869368873731557</v>
       </c>
       <c r="D18">
-        <v>1.03989094175017</v>
+        <v>1.012819012100101</v>
       </c>
       <c r="E18">
-        <v>1.035830924954154</v>
+        <v>0.9966817647121315</v>
       </c>
       <c r="F18">
-        <v>1.048450232885652</v>
+        <v>1.015510946579323</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03738488020182</v>
+        <v>1.04520854360114</v>
       </c>
       <c r="J18">
-        <v>1.038163567142466</v>
+        <v>1.014502652060862</v>
       </c>
       <c r="K18">
-        <v>1.04320155042724</v>
+        <v>1.026420081473185</v>
       </c>
       <c r="L18">
-        <v>1.039155440858581</v>
+        <v>1.010558022097874</v>
       </c>
       <c r="M18">
-        <v>1.051731910103955</v>
+        <v>1.029067206388997</v>
       </c>
       <c r="N18">
-        <v>1.039637878486835</v>
+        <v>1.015943362191869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032117627550694</v>
+        <v>0.9873728058145811</v>
       </c>
       <c r="D19">
-        <v>1.03995407937612</v>
+        <v>1.013144883614033</v>
       </c>
       <c r="E19">
-        <v>1.035909876730612</v>
+        <v>0.9970713908808017</v>
       </c>
       <c r="F19">
-        <v>1.048524315137871</v>
+        <v>1.015883893799477</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03740384911576</v>
+        <v>1.045347479416187</v>
       </c>
       <c r="J19">
-        <v>1.038219096733056</v>
+        <v>1.014784017183671</v>
       </c>
       <c r="K19">
-        <v>1.043250228679391</v>
+        <v>1.02667716445978</v>
       </c>
       <c r="L19">
-        <v>1.039219813731874</v>
+        <v>1.010876052129269</v>
       </c>
       <c r="M19">
-        <v>1.051791632354174</v>
+        <v>1.029370865449852</v>
       </c>
       <c r="N19">
-        <v>1.039693486935812</v>
+        <v>1.016225126885425</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031745835454002</v>
+        <v>0.9854157619771731</v>
       </c>
       <c r="D20">
-        <v>1.039671698619523</v>
+        <v>1.011682153807864</v>
       </c>
       <c r="E20">
-        <v>1.035556824432633</v>
+        <v>0.9953227411464411</v>
       </c>
       <c r="F20">
-        <v>1.048193010988073</v>
+        <v>1.014209995734064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037318880093845</v>
+        <v>1.044722712149597</v>
       </c>
       <c r="J20">
-        <v>1.037970721968757</v>
+        <v>1.013520693128688</v>
       </c>
       <c r="K20">
-        <v>1.043032461942372</v>
+        <v>1.025522650549139</v>
       </c>
       <c r="L20">
-        <v>1.038931913893744</v>
+        <v>1.009448336145854</v>
       </c>
       <c r="M20">
-        <v>1.051524500264818</v>
+        <v>1.02800749825949</v>
       </c>
       <c r="N20">
-        <v>1.039444759450859</v>
+        <v>1.014960008765379</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030537273755629</v>
+        <v>0.9789165502562173</v>
       </c>
       <c r="D21">
-        <v>1.038753400159971</v>
+        <v>1.006829638120669</v>
       </c>
       <c r="E21">
-        <v>1.03440969591426</v>
+        <v>0.9895259756412612</v>
       </c>
       <c r="F21">
-        <v>1.04711607095865</v>
+        <v>1.008659341597056</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037040258392919</v>
+        <v>1.042630094708999</v>
       </c>
       <c r="J21">
-        <v>1.03716264616615</v>
+        <v>1.009322996857724</v>
       </c>
       <c r="K21">
-        <v>1.042323321271331</v>
+        <v>1.02168276591834</v>
       </c>
       <c r="L21">
-        <v>1.037995762590565</v>
+        <v>1.004708536259705</v>
       </c>
       <c r="M21">
-        <v>1.050655324841992</v>
+        <v>1.0234784964438</v>
       </c>
       <c r="N21">
-        <v>1.038635536087924</v>
+        <v>1.010756351284227</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029777531497692</v>
+        <v>0.9747193927561963</v>
       </c>
       <c r="D22">
-        <v>1.038175839535877</v>
+        <v>1.003700440781881</v>
       </c>
       <c r="E22">
-        <v>1.033688971657596</v>
+        <v>0.9857908589428258</v>
       </c>
       <c r="F22">
-        <v>1.04643908232678</v>
+        <v>1.005081699771923</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036863255452279</v>
+        <v>1.041265362970935</v>
       </c>
       <c r="J22">
-        <v>1.036654128682842</v>
+        <v>1.00661072338121</v>
       </c>
       <c r="K22">
-        <v>1.04187656881567</v>
+        <v>1.019198945928029</v>
       </c>
       <c r="L22">
-        <v>1.037407044287026</v>
+        <v>1.00164915661169</v>
       </c>
       <c r="M22">
-        <v>1.050108302595477</v>
+        <v>1.020553154931753</v>
       </c>
       <c r="N22">
-        <v>1.038126296451462</v>
+        <v>1.008040226068275</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030180273205584</v>
+        <v>0.9769553026771204</v>
       </c>
       <c r="D23">
-        <v>1.038482033180093</v>
+        <v>1.005366961619089</v>
       </c>
       <c r="E23">
-        <v>1.034070991789539</v>
+        <v>0.987779813867379</v>
       </c>
       <c r="F23">
-        <v>1.046797954689316</v>
+        <v>1.006986890001785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03695726072352</v>
+        <v>1.041993609441423</v>
       </c>
       <c r="J23">
-        <v>1.036923745864578</v>
+        <v>1.008055717211165</v>
       </c>
       <c r="K23">
-        <v>1.04211348477722</v>
+        <v>1.020522476959337</v>
       </c>
       <c r="L23">
-        <v>1.037719146598713</v>
+        <v>1.003278778724783</v>
       </c>
       <c r="M23">
-        <v>1.050398340237324</v>
+        <v>1.022111559674378</v>
       </c>
       <c r="N23">
-        <v>1.038396296520522</v>
+        <v>1.009487271955212</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031766099360422</v>
+        <v>0.9855229314241475</v>
       </c>
       <c r="D24">
-        <v>1.039687090757186</v>
+        <v>1.011762236589461</v>
       </c>
       <c r="E24">
-        <v>1.035576065015612</v>
+        <v>0.9954184610888328</v>
       </c>
       <c r="F24">
-        <v>1.04821106813971</v>
+        <v>1.014301630583963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037323520312145</v>
+        <v>1.044756992143481</v>
       </c>
       <c r="J24">
-        <v>1.03798426186202</v>
+        <v>1.013589883161727</v>
       </c>
       <c r="K24">
-        <v>1.04304433571211</v>
+        <v>1.025585895470591</v>
       </c>
       <c r="L24">
-        <v>1.038947606503832</v>
+        <v>1.00952651424433</v>
       </c>
       <c r="M24">
-        <v>1.051539062974626</v>
+        <v>1.028082163687144</v>
       </c>
       <c r="N24">
-        <v>1.039458318572323</v>
+        <v>1.015029297056201</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033606935384708</v>
+        <v>0.9950209422217909</v>
       </c>
       <c r="D25">
-        <v>1.041084648215526</v>
+        <v>1.018867281756717</v>
       </c>
       <c r="E25">
-        <v>1.037324881922585</v>
+        <v>1.003919209404802</v>
       </c>
       <c r="F25">
-        <v>1.049851442553436</v>
+        <v>1.022436090850512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037740600503547</v>
+        <v>1.047762469329668</v>
       </c>
       <c r="J25">
-        <v>1.039212976322549</v>
+        <v>1.019717041290571</v>
       </c>
       <c r="K25">
-        <v>1.044120661446663</v>
+        <v>1.031179601228787</v>
       </c>
       <c r="L25">
-        <v>1.04037262663456</v>
+        <v>1.016456987837259</v>
       </c>
       <c r="M25">
-        <v>1.052860457201773</v>
+        <v>1.034695820348494</v>
       </c>
       <c r="N25">
-        <v>1.040688777948321</v>
+        <v>1.021165156452383</v>
       </c>
     </row>
   </sheetData>
